--- a/FALCON/ExampleDatasets/PDGF/PDGF_meas.xlsx
+++ b/FALCON/ExampleDatasets/PDGF/PDGF_meas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.lucarelli\Desktop\FALCON-annotation\FALCON-annotation\FALCON\ExampleDatasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastien.delandtshe\Dropbox\Main\Matlab\FALCON\FALCON\FALCON\ExampleDatasets\PDGF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -884,7 +886,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -932,19 +934,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F7">
         <v>1.9E-2</v>
